--- a/illustrations/bunmd_chart.xlsx
+++ b/illustrations/bunmd_chart.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/casey/Documents/censoc/bunmd_paper/illustrations/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE94DD63-CCD3-F947-8699-F5576AAF1902}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DF73DC0-EE6B-C548-BF28-29AF419AFADE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16600" activeTab="2" xr2:uid="{452CFEE0-C7D5-3243-AC7A-F2028922B8D4}"/>
+    <workbookView xWindow="36300" yWindow="-2680" windowWidth="28800" windowHeight="16420" activeTab="2" xr2:uid="{452CFEE0-C7D5-3243-AC7A-F2028922B8D4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -237,7 +237,7 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve">: Bolded values were selected for in the BUNMD. Stared values were represent contructed variables. </t>
+      <t xml:space="preserve">: Bolded values were selected for in the BUNMD. Starred values were represent contructed variables. </t>
     </r>
   </si>
 </sst>
@@ -500,58 +500,58 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="164" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -2286,7 +2286,7 @@
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="S20" sqref="S20"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2348,11 +2348,11 @@
       <c r="D3" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="24" t="s">
+      <c r="E3" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
       <c r="H3" s="23"/>
       <c r="I3" s="23"/>
       <c r="J3" s="23"/>
@@ -2367,247 +2367,247 @@
       <c r="O3" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="P3" s="25"/>
+      <c r="P3" s="24"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="27">
+      <c r="B4" s="26">
         <v>131074264</v>
       </c>
-      <c r="C4" s="27" t="s">
+      <c r="C4" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="27" t="s">
+      <c r="D4" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="28">
+      <c r="E4" s="37">
         <v>3106</v>
       </c>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="27"/>
-      <c r="J4" s="27"/>
-      <c r="K4" s="27"/>
-      <c r="L4" s="27">
-        <v>1</v>
-      </c>
-      <c r="M4" s="29">
-        <v>2</v>
-      </c>
-      <c r="N4" s="29"/>
-      <c r="O4" s="29" t="s">
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="26"/>
+      <c r="K4" s="26"/>
+      <c r="L4" s="26">
+        <v>1</v>
+      </c>
+      <c r="M4" s="27">
+        <v>2</v>
+      </c>
+      <c r="N4" s="27"/>
+      <c r="O4" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="P4" s="30"/>
-      <c r="Q4" s="31"/>
+      <c r="P4" s="28"/>
+      <c r="Q4" s="29"/>
     </row>
     <row r="5" spans="1:17" ht="11" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="32"/>
-      <c r="B5" s="27"/>
-      <c r="C5" s="27"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="27"/>
-      <c r="H5" s="27"/>
-      <c r="I5" s="27"/>
-      <c r="J5" s="27"/>
-      <c r="K5" s="27"/>
-      <c r="L5" s="27"/>
-      <c r="M5" s="27"/>
-      <c r="N5" s="27"/>
-      <c r="O5" s="27"/>
-      <c r="P5" s="27"/>
+      <c r="A5" s="30"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="26"/>
+      <c r="M5" s="26"/>
+      <c r="N5" s="26"/>
+      <c r="O5" s="26"/>
+      <c r="P5" s="26"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A6" s="33"/>
-      <c r="B6" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" s="34" t="s">
+      <c r="A6" s="31"/>
+      <c r="B6" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="35" t="s">
+      <c r="E6" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="35"/>
-      <c r="G6" s="35"/>
-      <c r="H6" s="35" t="s">
+      <c r="F6" s="39"/>
+      <c r="G6" s="39"/>
+      <c r="H6" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="I6" s="35"/>
-      <c r="J6" s="35"/>
-      <c r="K6" s="34"/>
-      <c r="L6" s="34" t="s">
+      <c r="I6" s="39"/>
+      <c r="J6" s="39"/>
+      <c r="K6" s="32"/>
+      <c r="L6" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="M6" s="34"/>
-      <c r="N6" s="34"/>
-      <c r="O6" s="34"/>
-      <c r="P6" s="34" t="s">
+      <c r="M6" s="32"/>
+      <c r="N6" s="32"/>
+      <c r="O6" s="32"/>
+      <c r="P6" s="32" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A7" s="26" t="s">
+      <c r="A7" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="29">
+      <c r="B7" s="27">
         <v>131074264</v>
       </c>
-      <c r="C7" s="29" t="s">
+      <c r="C7" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="29" t="s">
+      <c r="D7" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="36">
+      <c r="E7" s="40">
         <v>3106</v>
       </c>
-      <c r="F7" s="36"/>
-      <c r="G7" s="36"/>
-      <c r="H7" s="36">
+      <c r="F7" s="40"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="40">
         <v>33993</v>
       </c>
-      <c r="I7" s="36"/>
-      <c r="J7" s="36"/>
-      <c r="K7" s="29"/>
-      <c r="L7" s="29">
-        <v>1</v>
-      </c>
-      <c r="M7" s="29"/>
-      <c r="N7" s="29"/>
-      <c r="O7" s="29"/>
-      <c r="P7" s="29">
+      <c r="I7" s="40"/>
+      <c r="J7" s="40"/>
+      <c r="K7" s="27"/>
+      <c r="L7" s="27">
+        <v>1</v>
+      </c>
+      <c r="M7" s="27"/>
+      <c r="N7" s="27"/>
+      <c r="O7" s="27"/>
+      <c r="P7" s="27">
         <v>220411335</v>
       </c>
-      <c r="Q7" s="31"/>
+      <c r="Q7" s="29"/>
     </row>
     <row r="8" spans="1:17" ht="10" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="32"/>
-      <c r="B8" s="27"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="27"/>
-      <c r="I8" s="27"/>
-      <c r="J8" s="27"/>
-      <c r="K8" s="27"/>
-      <c r="L8" s="27"/>
-      <c r="M8" s="27"/>
-      <c r="N8" s="27"/>
-      <c r="O8" s="27"/>
-      <c r="P8" s="27"/>
+      <c r="A8" s="30"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="26"/>
+      <c r="L8" s="26"/>
+      <c r="M8" s="26"/>
+      <c r="N8" s="26"/>
+      <c r="O8" s="26"/>
+      <c r="P8" s="26"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A9" s="33"/>
-      <c r="B9" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="D9" s="34" t="s">
+      <c r="A9" s="31"/>
+      <c r="B9" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="34" t="s">
+      <c r="E9" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="34" t="s">
+      <c r="F9" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="G9" s="34" t="s">
+      <c r="G9" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="H9" s="34" t="s">
+      <c r="H9" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="I9" s="34" t="s">
+      <c r="I9" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="J9" s="34" t="s">
+      <c r="J9" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="K9" s="34" t="s">
+      <c r="K9" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="L9" s="34" t="s">
+      <c r="L9" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="M9" s="34" t="s">
+      <c r="M9" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="N9" s="34" t="s">
+      <c r="N9" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="O9" s="34" t="s">
+      <c r="O9" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="P9" s="34" t="s">
+      <c r="P9" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="Q9" s="34" t="s">
+      <c r="Q9" s="32" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A10" s="26" t="s">
+      <c r="A10" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="B10" s="29">
+      <c r="B10" s="27">
         <v>131074264</v>
       </c>
-      <c r="C10" s="29" t="s">
+      <c r="C10" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="29" t="s">
+      <c r="D10" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="29">
+      <c r="E10" s="27">
         <v>1908</v>
       </c>
-      <c r="F10" s="29">
+      <c r="F10" s="27">
         <v>7</v>
       </c>
-      <c r="G10" s="29">
-        <v>2</v>
-      </c>
-      <c r="H10" s="29">
+      <c r="G10" s="27">
+        <v>2</v>
+      </c>
+      <c r="H10" s="27">
         <v>1993</v>
       </c>
-      <c r="I10" s="29">
-        <v>1</v>
-      </c>
-      <c r="J10" s="29">
+      <c r="I10" s="27">
+        <v>1</v>
+      </c>
+      <c r="J10" s="27">
         <v>24</v>
       </c>
-      <c r="K10" s="29" t="s">
+      <c r="K10" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="L10" s="29">
-        <v>1</v>
-      </c>
-      <c r="M10" s="29" t="s">
+      <c r="L10" s="27">
+        <v>1</v>
+      </c>
+      <c r="M10" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="N10" s="29">
-        <v>2</v>
-      </c>
-      <c r="O10" s="29">
+      <c r="N10" s="27">
+        <v>2</v>
+      </c>
+      <c r="O10" s="27">
         <v>2400</v>
       </c>
-      <c r="P10" s="29">
+      <c r="P10" s="27">
         <v>220411335</v>
       </c>
-      <c r="Q10" s="29" t="s">
+      <c r="Q10" s="27" t="s">
         <v>40</v>
       </c>
     </row>
@@ -2615,21 +2615,21 @@
       <c r="A11" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="37"/>
-      <c r="C11" s="37"/>
-      <c r="D11" s="37"/>
-      <c r="E11" s="37"/>
-      <c r="F11" s="37"/>
-      <c r="G11" s="37"/>
-      <c r="H11" s="37"/>
-      <c r="I11" s="37"/>
-      <c r="J11" s="37"/>
-      <c r="K11" s="37"/>
-      <c r="L11" s="37"/>
-      <c r="M11" s="37"/>
-      <c r="N11" s="37"/>
-      <c r="O11" s="37"/>
-      <c r="P11" s="37"/>
+      <c r="B11" s="33"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="33"/>
+      <c r="I11" s="33"/>
+      <c r="J11" s="33"/>
+      <c r="K11" s="33"/>
+      <c r="L11" s="33"/>
+      <c r="M11" s="33"/>
+      <c r="N11" s="33"/>
+      <c r="O11" s="33"/>
+      <c r="P11" s="33"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" s="22"/>
@@ -2642,11 +2642,11 @@
       <c r="D12" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="E12" s="24" t="s">
+      <c r="E12" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="F12" s="24"/>
-      <c r="G12" s="24"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="38"/>
       <c r="H12" s="23"/>
       <c r="I12" s="23"/>
       <c r="J12" s="23" t="s">
@@ -2657,7 +2657,7 @@
         <v>5</v>
       </c>
       <c r="M12" s="23"/>
-      <c r="N12" s="38"/>
+      <c r="N12" s="34"/>
       <c r="O12" s="23" t="s">
         <v>20</v>
       </c>
@@ -2665,349 +2665,349 @@
       <c r="Q12" s="23"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A13" s="26" t="s">
+      <c r="A13" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="B13" s="27">
+      <c r="B13" s="26">
         <v>567183907</v>
       </c>
-      <c r="C13" s="27" t="s">
+      <c r="C13" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="27" t="s">
+      <c r="D13" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="E13" s="28">
+      <c r="E13" s="37">
         <v>7710</v>
       </c>
-      <c r="F13" s="28"/>
-      <c r="G13" s="28"/>
-      <c r="H13" s="27"/>
-      <c r="I13" s="27"/>
-      <c r="J13" s="29">
-        <v>1</v>
-      </c>
-      <c r="K13" s="27"/>
-      <c r="L13" s="27">
-        <v>2</v>
-      </c>
-      <c r="M13" s="27"/>
-      <c r="N13" s="27"/>
-      <c r="O13" s="27" t="s">
+      <c r="F13" s="37"/>
+      <c r="G13" s="37"/>
+      <c r="H13" s="26"/>
+      <c r="I13" s="26"/>
+      <c r="J13" s="27">
+        <v>1</v>
+      </c>
+      <c r="K13" s="26"/>
+      <c r="L13" s="26">
+        <v>2</v>
+      </c>
+      <c r="M13" s="26"/>
+      <c r="N13" s="26"/>
+      <c r="O13" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="P13" s="27"/>
-      <c r="Q13" s="27"/>
+      <c r="P13" s="26"/>
+      <c r="Q13" s="26"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A14" s="26" t="s">
+      <c r="A14" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="B14" s="27">
+      <c r="B14" s="26">
         <v>567183907</v>
       </c>
-      <c r="C14" s="27" t="s">
+      <c r="C14" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="27" t="s">
+      <c r="D14" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="E14" s="39">
+      <c r="E14" s="41">
         <v>7710</v>
       </c>
-      <c r="F14" s="39"/>
-      <c r="G14" s="39"/>
-      <c r="H14" s="27"/>
-      <c r="I14" s="27"/>
-      <c r="J14" s="27">
-        <v>1</v>
-      </c>
-      <c r="K14" s="27"/>
-      <c r="L14" s="27">
-        <v>2</v>
-      </c>
-      <c r="M14" s="27"/>
-      <c r="N14" s="27"/>
-      <c r="O14" s="29" t="s">
+      <c r="F14" s="41"/>
+      <c r="G14" s="41"/>
+      <c r="H14" s="26"/>
+      <c r="I14" s="26"/>
+      <c r="J14" s="26">
+        <v>1</v>
+      </c>
+      <c r="K14" s="26"/>
+      <c r="L14" s="26">
+        <v>2</v>
+      </c>
+      <c r="M14" s="26"/>
+      <c r="N14" s="26"/>
+      <c r="O14" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="P14" s="27"/>
-      <c r="Q14" s="27"/>
+      <c r="P14" s="26"/>
+      <c r="Q14" s="26"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A15" s="26" t="s">
+      <c r="A15" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="B15" s="27">
+      <c r="B15" s="26">
         <v>567183907</v>
       </c>
-      <c r="C15" s="27" t="s">
+      <c r="C15" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="27" t="s">
+      <c r="D15" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="E15" s="39">
+      <c r="E15" s="41">
         <v>7710</v>
       </c>
-      <c r="F15" s="39"/>
-      <c r="G15" s="39"/>
-      <c r="H15" s="27"/>
-      <c r="I15" s="27"/>
-      <c r="J15" s="29">
-        <v>1</v>
-      </c>
-      <c r="K15" s="27"/>
-      <c r="L15" s="27">
-        <v>2</v>
-      </c>
-      <c r="M15" s="27"/>
-      <c r="N15" s="27"/>
-      <c r="O15" s="27" t="s">
+      <c r="F15" s="41"/>
+      <c r="G15" s="41"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="26"/>
+      <c r="J15" s="27">
+        <v>1</v>
+      </c>
+      <c r="K15" s="26"/>
+      <c r="L15" s="26">
+        <v>2</v>
+      </c>
+      <c r="M15" s="26"/>
+      <c r="N15" s="26"/>
+      <c r="O15" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="P15" s="27"/>
-      <c r="Q15" s="27"/>
+      <c r="P15" s="26"/>
+      <c r="Q15" s="26"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A16" s="26" t="s">
+      <c r="A16" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="B16" s="27">
+      <c r="B16" s="26">
         <v>567183907</v>
       </c>
-      <c r="C16" s="27" t="s">
+      <c r="C16" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="27" t="s">
+      <c r="D16" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="E16" s="39">
+      <c r="E16" s="41">
         <v>7710</v>
       </c>
-      <c r="F16" s="39"/>
-      <c r="G16" s="39"/>
-      <c r="H16" s="27"/>
-      <c r="I16" s="27"/>
-      <c r="J16" s="27" t="s">
+      <c r="F16" s="41"/>
+      <c r="G16" s="41"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="26"/>
+      <c r="J16" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="K16" s="27"/>
-      <c r="L16" s="27">
-        <v>2</v>
-      </c>
-      <c r="M16" s="27"/>
-      <c r="N16" s="27"/>
-      <c r="O16" s="27" t="s">
+      <c r="K16" s="26"/>
+      <c r="L16" s="26">
+        <v>2</v>
+      </c>
+      <c r="M16" s="26"/>
+      <c r="N16" s="26"/>
+      <c r="O16" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="P16" s="27"/>
-      <c r="Q16" s="29"/>
+      <c r="P16" s="26"/>
+      <c r="Q16" s="27"/>
     </row>
     <row r="17" spans="1:17" ht="7" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="32"/>
-      <c r="B17" s="27"/>
-      <c r="C17" s="27"/>
-      <c r="D17" s="27"/>
-      <c r="E17" s="27"/>
-      <c r="F17" s="27"/>
-      <c r="G17" s="27"/>
-      <c r="H17" s="27"/>
-      <c r="I17" s="27"/>
-      <c r="J17" s="27"/>
-      <c r="K17" s="27"/>
-      <c r="L17" s="27"/>
-      <c r="M17" s="27"/>
-      <c r="N17" s="27"/>
-      <c r="O17" s="27"/>
-      <c r="P17" s="27"/>
+      <c r="A17" s="30"/>
+      <c r="B17" s="26"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="26"/>
+      <c r="I17" s="26"/>
+      <c r="J17" s="26"/>
+      <c r="K17" s="26"/>
+      <c r="L17" s="26"/>
+      <c r="M17" s="26"/>
+      <c r="N17" s="26"/>
+      <c r="O17" s="26"/>
+      <c r="P17" s="26"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A18" s="33"/>
-      <c r="B18" s="40" t="s">
-        <v>1</v>
-      </c>
-      <c r="C18" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="D18" s="34" t="s">
+      <c r="A18" s="31"/>
+      <c r="B18" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="E18" s="35" t="s">
+      <c r="E18" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="F18" s="35"/>
-      <c r="G18" s="35"/>
-      <c r="H18" s="35" t="s">
+      <c r="F18" s="39"/>
+      <c r="G18" s="39"/>
+      <c r="H18" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="I18" s="35"/>
-      <c r="J18" s="35"/>
-      <c r="K18" s="34"/>
-      <c r="L18" s="34" t="s">
+      <c r="I18" s="39"/>
+      <c r="J18" s="39"/>
+      <c r="K18" s="32"/>
+      <c r="L18" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="M18" s="34"/>
-      <c r="N18" s="34"/>
-      <c r="O18" s="34"/>
-      <c r="P18" s="34" t="s">
+      <c r="M18" s="32"/>
+      <c r="N18" s="32"/>
+      <c r="O18" s="32"/>
+      <c r="P18" s="32" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A19" s="26" t="s">
+      <c r="A19" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="41">
+      <c r="B19" s="36">
         <v>567183907</v>
       </c>
-      <c r="C19" s="29" t="s">
+      <c r="C19" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="D19" s="29" t="s">
+      <c r="D19" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="E19" s="36">
+      <c r="E19" s="40">
         <v>7710</v>
       </c>
-      <c r="F19" s="36"/>
-      <c r="G19" s="36"/>
-      <c r="H19" s="36">
+      <c r="F19" s="40"/>
+      <c r="G19" s="40"/>
+      <c r="H19" s="40">
         <v>34879</v>
       </c>
-      <c r="I19" s="36"/>
-      <c r="J19" s="36"/>
-      <c r="K19" s="29"/>
-      <c r="L19" s="29">
-        <v>2</v>
-      </c>
-      <c r="M19" s="29"/>
-      <c r="N19" s="29"/>
-      <c r="O19" s="29"/>
-      <c r="P19" s="29">
+      <c r="I19" s="40"/>
+      <c r="J19" s="40"/>
+      <c r="K19" s="27"/>
+      <c r="L19" s="27">
+        <v>2</v>
+      </c>
+      <c r="M19" s="27"/>
+      <c r="N19" s="27"/>
+      <c r="O19" s="27"/>
+      <c r="P19" s="27">
         <v>900255240</v>
       </c>
-      <c r="Q19" s="31"/>
+      <c r="Q19" s="29"/>
     </row>
     <row r="20" spans="1:17" ht="10" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="32"/>
-      <c r="B20" s="27"/>
-      <c r="C20" s="27"/>
-      <c r="D20" s="27"/>
-      <c r="E20" s="27"/>
-      <c r="F20" s="27"/>
-      <c r="G20" s="27"/>
-      <c r="H20" s="27"/>
-      <c r="I20" s="27"/>
-      <c r="J20" s="27"/>
-      <c r="K20" s="27"/>
-      <c r="L20" s="27"/>
-      <c r="M20" s="27"/>
-      <c r="N20" s="27"/>
-      <c r="O20" s="27"/>
-      <c r="P20" s="27"/>
+      <c r="A20" s="30"/>
+      <c r="B20" s="26"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="26"/>
+      <c r="I20" s="26"/>
+      <c r="J20" s="26"/>
+      <c r="K20" s="26"/>
+      <c r="L20" s="26"/>
+      <c r="M20" s="26"/>
+      <c r="N20" s="26"/>
+      <c r="O20" s="26"/>
+      <c r="P20" s="26"/>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A21" s="33"/>
-      <c r="B21" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="C21" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="D21" s="34" t="s">
+      <c r="A21" s="31"/>
+      <c r="B21" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="D21" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="E21" s="34" t="s">
+      <c r="E21" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="F21" s="34" t="s">
+      <c r="F21" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="G21" s="34" t="s">
+      <c r="G21" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="H21" s="34" t="s">
+      <c r="H21" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="I21" s="34" t="s">
+      <c r="I21" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="J21" s="34" t="s">
+      <c r="J21" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="K21" s="34" t="s">
+      <c r="K21" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="L21" s="34" t="s">
+      <c r="L21" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="M21" s="34" t="s">
+      <c r="M21" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="N21" s="34" t="s">
+      <c r="N21" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="O21" s="34" t="s">
+      <c r="O21" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="P21" s="34" t="s">
+      <c r="P21" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="Q21" s="34" t="s">
+      <c r="Q21" s="32" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A22" s="26" t="s">
+      <c r="A22" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="B22" s="29">
+      <c r="B22" s="27">
         <v>567183907</v>
       </c>
-      <c r="C22" s="29" t="s">
+      <c r="C22" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="D22" s="29" t="s">
+      <c r="D22" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="E22" s="29">
+      <c r="E22" s="27">
         <v>1921</v>
       </c>
-      <c r="F22" s="29">
-        <v>2</v>
-      </c>
-      <c r="G22" s="29">
+      <c r="F22" s="27">
+        <v>2</v>
+      </c>
+      <c r="G22" s="27">
         <v>8</v>
       </c>
-      <c r="H22" s="29">
+      <c r="H22" s="27">
         <v>1995</v>
       </c>
-      <c r="I22" s="29">
+      <c r="I22" s="27">
         <v>6</v>
       </c>
-      <c r="J22" s="29">
+      <c r="J22" s="27">
         <v>29</v>
       </c>
-      <c r="K22" s="29" t="s">
+      <c r="K22" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="L22" s="29">
-        <v>2</v>
-      </c>
-      <c r="M22" s="29">
-        <v>1</v>
-      </c>
-      <c r="N22" s="29">
-        <v>1</v>
-      </c>
-      <c r="O22" s="29">
+      <c r="L22" s="27">
+        <v>2</v>
+      </c>
+      <c r="M22" s="27">
+        <v>1</v>
+      </c>
+      <c r="N22" s="27">
+        <v>1</v>
+      </c>
+      <c r="O22" s="27">
         <v>1600</v>
       </c>
-      <c r="P22" s="29">
+      <c r="P22" s="27">
         <v>900255240</v>
       </c>
-      <c r="Q22" s="29" t="s">
+      <c r="Q22" s="27" t="s">
         <v>59</v>
       </c>
     </row>

--- a/illustrations/bunmd_chart.xlsx
+++ b/illustrations/bunmd_chart.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/casey/Documents/censoc/bunmd_paper/illustrations/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4BB1C1B-AAA5-1340-8577-7F57778E11B7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBFCD180-7E7D-B048-B028-863BC3F0B58E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31300" yWindow="180" windowWidth="38200" windowHeight="21900" xr2:uid="{452CFEE0-C7D5-3243-AC7A-F2028922B8D4}"/>
+    <workbookView xWindow="32460" yWindow="-340" windowWidth="38200" windowHeight="21900" xr2:uid="{452CFEE0-C7D5-3243-AC7A-F2028922B8D4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet3" sheetId="3" r:id="rId1"/>
@@ -181,7 +181,7 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve">: Bolded values were selected for in the BUNMD. Starred values represent contructed variables not in the original records. Various features of the BUNMD creation algorithm can been seen here. For example, we select a person's first and last name from their death entries. We select the race and birthplace (bpl) from the application records. We use a crosswalk to recode the original two-letter character birthplace codes into a numeric code schema. We select race information from the application files to construct the race_first and race_last variables. The death_age and number_apps variables are not included in the original records, but were constructed post-hoc using information in the original records. </t>
+      <t xml:space="preserve">: Bolded values were selected for in the BUNMD. Starred values represent contructed variables not in the original records. Various features of the BUNMD creation algorithm can been seen here. For example, we select a person's first and last name from their death entries. We select the race and birthplace (bpl) from the application records. We use a crosswalk to recode the original two-letter character birthplace codes into a numeric code schema. We select race information from the application files to construct the race_first and race_last variables. The death_age and number_apps variables are not included in the original records but were constructed post-hoc using information in the original records. </t>
     </r>
   </si>
 </sst>
@@ -724,7 +724,7 @@
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
